--- a/Funcitonality_tests.xlsx
+++ b/Funcitonality_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eceme\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc3\Desktop\Hochschule\Projektarbeit_gesamt\Projektarbeit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A982DB0-8A57-4482-9CCB-B09B9DB42A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F39B13-023E-494C-A936-B83EC52DB4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
+    <workbookView xWindow="5950" yWindow="3070" windowWidth="19200" windowHeight="11170" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="70">
   <si>
     <t>Loreal</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Imprint and Privac Policy Links</t>
+  </si>
+  <si>
+    <t>Impressumcheck</t>
   </si>
 </sst>
 </file>
@@ -623,20 +626,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEFA27B-2ADC-438B-82B0-222C43B5E3F7}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>63</v>
       </c>
@@ -652,8 +655,11 @@
       <c r="F1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,8 +678,11 @@
       <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -692,8 +701,11 @@
       <c r="F3" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +725,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -733,7 +745,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -752,8 +764,11 @@
       <c r="F6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -773,7 +788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -793,7 +808,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -808,8 +823,11 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -828,8 +846,11 @@
       <c r="F10" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -848,8 +869,11 @@
       <c r="F11" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -868,8 +892,11 @@
       <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -888,8 +915,11 @@
       <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -904,8 +934,11 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -924,8 +957,11 @@
       <c r="F15" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -942,8 +978,11 @@
         <v>65</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -958,8 +997,11 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -978,8 +1020,11 @@
       <c r="F18" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -998,8 +1043,11 @@
       <c r="F19" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1018,8 +1066,11 @@
       <c r="F20" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1038,8 +1089,11 @@
       <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1058,8 +1112,11 @@
       <c r="F22" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1152,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1115,7 +1172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1134,8 +1191,11 @@
       <c r="F26" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1154,8 +1214,11 @@
       <c r="F27" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1185,7 +1248,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="F30" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1221,7 +1287,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1241,7 +1307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1260,8 +1326,11 @@
       <c r="F33" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1277,7 +1346,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1296,8 +1365,11 @@
       <c r="F35" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1316,8 +1388,11 @@
       <c r="F36" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1333,7 +1408,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1352,8 +1427,11 @@
       <c r="F38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1368,8 +1446,11 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1388,8 +1469,11 @@
       <c r="F40" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1483,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1416,8 +1500,11 @@
         <v>65</v>
       </c>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1435,7 +1522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1454,8 +1541,11 @@
       <c r="F44" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1475,7 +1565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1490,8 +1580,11 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1506,8 +1599,11 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1523,7 +1619,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1538,8 +1634,9 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1554,8 +1651,11 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1671,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1587,7 +1687,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1602,8 +1702,11 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1619,7 +1722,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1634,8 +1737,11 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1651,7 +1757,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1667,7 +1773,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1682,8 +1788,11 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1699,7 +1808,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1714,8 +1823,11 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1731,7 +1843,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1746,8 +1858,11 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1763,7 +1878,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1779,7 +1894,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f>COUNTA(A2:A64)</f>
         <v>63</v>
@@ -1806,7 +1921,7 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" ref="G65" si="3">COUNTA(G2:G64)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" ref="H65" si="4">COUNTA(H2:H64)</f>
@@ -1842,7 +1957,7 @@
       </c>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3">
         <f>B65/A65</f>
@@ -1866,7 +1981,7 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" ref="G66" si="13">G65/$A65</f>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" ref="H66" si="14">H65/$A65</f>

--- a/Funcitonality_tests.xlsx
+++ b/Funcitonality_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc3\Desktop\Hochschule\Projektarbeit_gesamt\Projektarbeit-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc3\Desktop\Hochschule\Projektarbeit_Stand_280125\Projektarbeit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F39B13-023E-494C-A936-B83EC52DB4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172768DC-FF26-4E6A-9A9B-4814E2118AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5950" yWindow="3070" windowWidth="19200" windowHeight="11170" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
+    <workbookView xWindow="0" yWindow="3660" windowWidth="14560" windowHeight="11170" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="74">
   <si>
     <t>Loreal</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>Impressumcheck</t>
+  </si>
+  <si>
+    <t>Page Footer Links</t>
+  </si>
+  <si>
+    <t>Impressum / Cookie / Privacy Policy Page footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressum length / horizontal scroll </t>
+  </si>
+  <si>
+    <t>cookie nicht rest +</t>
   </si>
 </sst>
 </file>
@@ -626,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEFA27B-2ADC-438B-82B0-222C43B5E3F7}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,9 +649,13 @@
     <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>63</v>
       </c>
@@ -658,8 +674,17 @@
       <c r="G1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -681,8 +706,17 @@
       <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -704,8 +738,17 @@
       <c r="G3" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -725,7 +768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -745,7 +788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -767,8 +810,17 @@
       <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -788,7 +840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -808,7 +860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -826,8 +878,17 @@
       <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -849,8 +910,17 @@
       <c r="G10" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -872,8 +942,17 @@
       <c r="G11" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -895,8 +974,17 @@
       <c r="G12" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -918,8 +1006,17 @@
       <c r="G13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -937,8 +1034,17 @@
       <c r="G14" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -960,8 +1066,17 @@
       <c r="G15" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -981,8 +1096,17 @@
       <c r="G16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1000,8 +1124,17 @@
       <c r="G17" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1023,8 +1156,17 @@
       <c r="G18" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1043,11 +1185,15 @@
       <c r="F19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1069,8 +1215,17 @@
       <c r="G20" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1093,7 +1248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1136,7 +1291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1307,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1172,7 +1327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1195,7 +1350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1373,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1393,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1248,7 +1403,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1271,7 +1426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1287,7 +1442,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1485,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1346,7 +1501,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1369,7 +1524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1392,7 +1547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1408,7 +1563,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1430,8 +1585,17 @@
       <c r="G38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1450,7 +1614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1472,8 +1636,17 @@
       <c r="G40" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1656,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1504,7 +1677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1695,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1545,7 +1718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1565,7 +1738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1584,7 +1757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1603,7 +1776,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1921,19 +2094,19 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" ref="G65" si="3">COUNTA(G2:G64)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" ref="H65" si="4">COUNTA(H2:H64)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" ref="I65" si="5">COUNTA(I2:I64)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" ref="J65" si="6">COUNTA(J2:J64)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" ref="K65" si="7">COUNTA(K2:K64)</f>
@@ -1981,19 +2154,19 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" ref="G66" si="13">G65/$A65</f>
-        <v>0.5714285714285714</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" ref="H66" si="14">H65/$A65</f>
-        <v>0</v>
+        <v>0.26984126984126983</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" ref="I66" si="15">I65/$A65</f>
-        <v>0</v>
+        <v>0.26984126984126983</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" ref="J66" si="16">J65/$A65</f>
-        <v>0</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="K66" s="3">
         <f t="shared" ref="K66" si="17">K65/$A65</f>

--- a/Funcitonality_tests.xlsx
+++ b/Funcitonality_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eceme\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc3\Desktop\Hochschule\Projektarbeit_Stand_300125_Richtig\Projektarbeit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0EB7A2B-CFC3-4AFF-9126-41A4C57B5281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90176B0B-F51A-42C9-BF15-BBA8FC855435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="75">
   <si>
     <t>Loreal</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>Cookie Banner Scrollbar</t>
+  </si>
+  <si>
+    <t>Page Footer Links</t>
+  </si>
+  <si>
+    <t>Impressum / Cookie / Privacy Policy Page footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressum length / horizontal scroll </t>
+  </si>
+  <si>
+    <t>cookie nicht rest +</t>
   </si>
 </sst>
 </file>
@@ -629,21 +641,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEFA27B-2ADC-438B-82B0-222C43B5E3F7}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>63</v>
       </c>
@@ -665,8 +681,17 @@
       <c r="H1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -691,8 +716,17 @@
       <c r="H2" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -717,8 +751,17 @@
       <c r="H3" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -741,7 +784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -764,7 +807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -789,8 +832,17 @@
       <c r="H6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -813,7 +865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -836,7 +888,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -857,8 +909,17 @@
       <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -883,8 +944,17 @@
       <c r="H10" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -909,8 +979,17 @@
       <c r="H11" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -935,8 +1014,17 @@
       <c r="H12" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -961,8 +1049,17 @@
       <c r="H13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -981,8 +1078,17 @@
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1007,8 +1113,17 @@
       <c r="H15" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1031,8 +1146,17 @@
       <c r="H16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1051,8 +1175,17 @@
       <c r="H17" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1077,8 +1210,17 @@
       <c r="H18" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1100,11 +1242,15 @@
       <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1129,8 +1275,17 @@
       <c r="H20" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1205,7 +1360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1224,7 +1379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1247,7 +1402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1299,7 +1454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1488,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1359,7 +1514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +1533,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1401,7 +1556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1427,7 +1582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1444,7 +1599,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1470,7 +1625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1496,7 +1651,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1515,7 +1670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1540,8 +1695,17 @@
       <c r="H38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1563,7 +1727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1588,8 +1752,17 @@
       <c r="H40" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1600,7 +1773,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1624,7 +1797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1635,7 +1808,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1661,7 +1834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1684,7 +1857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1706,7 +1879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1728,7 +1901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1747,7 +1920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1767,7 +1940,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1806,7 +1979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1825,7 +1998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1845,7 +2018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1864,7 +2037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1886,7 +2059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +2076,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1920,7 +2093,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1942,7 +2115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1961,7 +2134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1983,7 +2156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2002,7 +2175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2024,7 +2197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2043,7 +2216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2062,7 +2235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f>COUNTA(A2:A64)</f>
         <v>63</v>
@@ -2084,7 +2257,7 @@
         <v>33</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" ref="F65:G65" si="2">COUNTA(F2:F64)</f>
+        <f t="shared" ref="F65:K65" si="2">COUNTA(F2:F64)</f>
         <v>31</v>
       </c>
       <c r="G65" s="1">
@@ -2092,44 +2265,44 @@
         <v>53</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" ref="H65" si="3">COUNTA(H2:H64)</f>
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" ref="I65" si="4">COUNTA(I2:I64)</f>
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" ref="L65" si="3">COUNTA(L2:L64)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="1">
-        <f t="shared" ref="J65" si="5">COUNTA(J2:J64)</f>
+      <c r="M65" s="1">
+        <f t="shared" ref="M65" si="4">COUNTA(M2:M64)</f>
         <v>0</v>
       </c>
-      <c r="K65" s="1">
-        <f t="shared" ref="K65" si="6">COUNTA(K2:K64)</f>
+      <c r="N65" s="1">
+        <f t="shared" ref="N65" si="5">COUNTA(N2:N64)</f>
         <v>0</v>
       </c>
-      <c r="L65" s="1">
-        <f t="shared" ref="L65" si="7">COUNTA(L2:L64)</f>
+      <c r="O65" s="1">
+        <f t="shared" ref="O65" si="6">COUNTA(O2:O64)</f>
         <v>0</v>
       </c>
-      <c r="M65" s="1">
-        <f t="shared" ref="M65" si="8">COUNTA(M2:M64)</f>
+      <c r="P65" s="1">
+        <f t="shared" ref="P65" si="7">COUNTA(P2:P64)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="1">
-        <f t="shared" ref="N65" si="9">COUNTA(N2:N64)</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="1">
-        <f t="shared" ref="O65" si="10">COUNTA(O2:O64)</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="1">
-        <f t="shared" ref="P65" si="11">COUNTA(P2:P64)</f>
-        <v>0</v>
-      </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3">
         <f>B65/A65</f>
@@ -2140,55 +2313,55 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" ref="D66:G66" si="12">D65/$A65</f>
+        <f t="shared" ref="D66:K66" si="8">D65/$A65</f>
         <v>0.95238095238095233</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.49206349206349204</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.84126984126984128</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" ref="H66" si="13">H65/$A65</f>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="8"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66" si="14">I65/$A65</f>
+        <f t="shared" si="8"/>
+        <v>0.26984126984126983</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="8"/>
+        <v>0.26984126984126983</v>
+      </c>
+      <c r="K66" s="3">
+        <f t="shared" si="8"/>
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" ref="L66" si="9">L65/$A65</f>
         <v>0</v>
       </c>
-      <c r="J66" s="3">
-        <f t="shared" ref="J66" si="15">J65/$A65</f>
+      <c r="M66" s="3">
+        <f t="shared" ref="M66" si="10">M65/$A65</f>
         <v>0</v>
       </c>
-      <c r="K66" s="3">
-        <f t="shared" ref="K66" si="16">K65/$A65</f>
+      <c r="N66" s="3">
+        <f t="shared" ref="N66" si="11">N65/$A65</f>
         <v>0</v>
       </c>
-      <c r="L66" s="3">
-        <f t="shared" ref="L66" si="17">L65/$A65</f>
+      <c r="O66" s="3">
+        <f t="shared" ref="O66" si="12">O65/$A65</f>
         <v>0</v>
       </c>
-      <c r="M66" s="3">
-        <f t="shared" ref="M66" si="18">M65/$A65</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <f t="shared" ref="N66" si="19">N65/$A65</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <f t="shared" ref="O66" si="20">O65/$A65</f>
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
-        <f t="shared" ref="P66" si="21">P65/$A65</f>
+        <f t="shared" ref="P66" si="13">P65/$A65</f>
         <v>0</v>
       </c>
       <c r="Q66" s="3"/>

--- a/Funcitonality_tests.xlsx
+++ b/Funcitonality_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc3\Desktop\Hochschule\Projektarbeit_Stand_300125_Richtig\Projektarbeit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90176B0B-F51A-42C9-BF15-BBA8FC855435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DD4D16-6B56-47DE-9DFB-9FC434517675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
+    <workbookView xWindow="170" yWindow="3460" windowWidth="18970" windowHeight="11170" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="75">
   <si>
     <t>Loreal</t>
   </si>
@@ -641,8 +641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEFA27B-2ADC-438B-82B0-222C43B5E3F7}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="12" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,6 +1313,15 @@
       <c r="H21" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -1336,6 +1348,15 @@
       <c r="H22" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1427,6 +1448,15 @@
       <c r="H26" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -1451,6 +1481,15 @@
         <v>65</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1513,6 +1552,15 @@
       <c r="H30" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -1581,6 +1629,15 @@
       <c r="H33" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="I33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -1622,6 +1679,15 @@
         <v>65</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2270,15 +2336,15 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" ref="L65" si="3">COUNTA(L2:L64)</f>
@@ -2334,15 +2400,15 @@
       </c>
       <c r="I66" s="3">
         <f t="shared" si="8"/>
-        <v>0.26984126984126983</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="8"/>
-        <v>0.26984126984126983</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="K66" s="3">
         <f t="shared" si="8"/>
-        <v>0.25396825396825395</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="L66" s="3">
         <f t="shared" ref="L66" si="9">L65/$A65</f>

--- a/Funcitonality_tests.xlsx
+++ b/Funcitonality_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc3\Desktop\Hochschule\Projektarbeit_Stand_280125\Projektarbeit-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc3\Desktop\Hochschule\Projektarbeit_Stand_300125_Richtig\Projektarbeit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172768DC-FF26-4E6A-9A9B-4814E2118AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DD4D16-6B56-47DE-9DFB-9FC434517675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3660" windowWidth="14560" windowHeight="11170" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
+    <workbookView xWindow="170" yWindow="3460" windowWidth="18970" windowHeight="11170" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="75">
   <si>
     <t>Loreal</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Impressumcheck</t>
+  </si>
+  <si>
+    <t>Cookie Banner Scrollbar</t>
   </si>
   <si>
     <t>Page Footer Links</t>
@@ -636,10 +639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEFA27B-2ADC-438B-82B0-222C43B5E3F7}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,13 +655,14 @@
     <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>63</v>
       </c>
@@ -672,10 +679,10 @@
         <v>68</v>
       </c>
       <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>70</v>
       </c>
       <c r="I1" t="s">
         <v>71</v>
@@ -683,8 +690,11 @@
       <c r="J1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -715,8 +725,11 @@
       <c r="J2" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -747,8 +760,11 @@
       <c r="J3" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -767,8 +783,11 @@
       <c r="F4" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -787,8 +806,11 @@
       <c r="F5" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -819,8 +841,11 @@
       <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -839,8 +864,11 @@
       <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -859,8 +887,11 @@
       <c r="F8" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -887,8 +918,11 @@
       <c r="J9" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -919,8 +953,11 @@
       <c r="J10" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -951,8 +988,11 @@
       <c r="J11" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -983,8 +1023,11 @@
       <c r="J12" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1015,8 +1058,11 @@
       <c r="J13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1031,9 +1077,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1043,8 +1087,11 @@
       <c r="J14" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1075,8 +1122,11 @@
       <c r="J15" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1105,8 +1155,11 @@
       <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1121,20 +1174,21 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1165,8 +1219,11 @@
       <c r="J18" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1185,15 +1242,18 @@
       <c r="F19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1224,8 +1284,11 @@
       <c r="J20" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1247,8 +1310,20 @@
       <c r="G21" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1270,8 +1345,20 @@
       <c r="G22" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1290,8 +1377,11 @@
       <c r="F23" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1306,8 +1396,11 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1419,11 @@
       <c r="F25" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1349,8 +1445,20 @@
       <c r="G26" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1372,8 +1480,20 @@
       <c r="G27" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1392,8 +1512,11 @@
       <c r="F28" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1402,8 +1525,9 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1425,8 +1549,20 @@
       <c r="G30" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1441,8 +1577,11 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1461,8 +1600,11 @@
       <c r="F32" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1484,8 +1626,20 @@
       <c r="G33" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1500,8 +1654,9 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1523,8 +1678,20 @@
       <c r="G35" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1546,8 +1713,11 @@
       <c r="G36" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1562,8 +1732,11 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1594,8 +1767,11 @@
       <c r="J38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1613,8 +1789,11 @@
       <c r="G39" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1645,8 +1824,11 @@
       <c r="J40" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1655,8 +1837,9 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1676,26 +1859,22 @@
       <c r="G42" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1717,8 +1896,11 @@
       <c r="G44" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1737,8 +1919,11 @@
       <c r="F45" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1756,8 +1941,11 @@
       <c r="G46" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1775,8 +1963,11 @@
       <c r="G47" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1791,8 +1982,11 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1807,9 +2001,12 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1824,11 +2021,12 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1843,8 +2041,11 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1859,8 +2060,11 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1875,11 +2079,12 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1894,8 +2099,11 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1913,8 +2121,11 @@
       <c r="G55" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1929,8 +2140,9 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1945,8 +2157,9 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1964,8 +2177,11 @@
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1980,8 +2196,11 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G59" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1999,8 +2218,11 @@
       <c r="G60" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2015,8 +2237,11 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G61" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2034,8 +2259,11 @@
       <c r="G62" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2050,8 +2278,11 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2066,129 +2297,140 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f>COUNTA(A2:A64)</f>
         <v>63</v>
       </c>
       <c r="B65" s="1">
         <f>COUNTA(B2:B64)</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" ref="C65:D65" si="0">COUNTA(C2:C64)</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" ref="E65" si="1">COUNTA(E2:E64)</f>
         <v>33</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" ref="F65" si="2">COUNTA(F2:F64)</f>
-        <v>32</v>
+        <f t="shared" ref="F65:K65" si="2">COUNTA(F2:F64)</f>
+        <v>31</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" ref="G65" si="3">COUNTA(G2:G64)</f>
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H65" s="1">
-        <f t="shared" ref="H65" si="4">COUNTA(H2:H64)</f>
-        <v>17</v>
-      </c>
       <c r="I65" s="1">
-        <f t="shared" ref="I65" si="5">COUNTA(I2:I64)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" ref="J65" si="6">COUNTA(J2:J64)</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" ref="K65" si="7">COUNTA(K2:K64)</f>
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" ref="L65" si="3">COUNTA(L2:L64)</f>
         <v>0</v>
       </c>
-      <c r="L65" s="1">
-        <f t="shared" ref="L65" si="8">COUNTA(L2:L64)</f>
+      <c r="M65" s="1">
+        <f t="shared" ref="M65" si="4">COUNTA(M2:M64)</f>
         <v>0</v>
       </c>
-      <c r="M65" s="1">
-        <f t="shared" ref="M65" si="9">COUNTA(M2:M64)</f>
+      <c r="N65" s="1">
+        <f t="shared" ref="N65" si="5">COUNTA(N2:N64)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="1">
-        <f t="shared" ref="N65" si="10">COUNTA(N2:N64)</f>
+      <c r="O65" s="1">
+        <f t="shared" ref="O65" si="6">COUNTA(O2:O64)</f>
         <v>0</v>
       </c>
-      <c r="O65" s="1">
-        <f t="shared" ref="O65" si="11">COUNTA(O2:O64)</f>
+      <c r="P65" s="1">
+        <f t="shared" ref="P65" si="7">COUNTA(P2:P64)</f>
         <v>0</v>
       </c>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3">
         <f>B65/A65</f>
-        <v>0.96825396825396826</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="C66" s="3">
         <f>C65/$A65</f>
-        <v>0.96825396825396826</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" ref="D66:F66" si="12">D65/$A65</f>
-        <v>0.96825396825396826</v>
+        <f t="shared" ref="D66:K66" si="8">D65/$A65</f>
+        <v>0.95238095238095233</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="12"/>
-        <v>0.50793650793650791</v>
+        <f t="shared" si="8"/>
+        <v>0.49206349206349204</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" ref="G66" si="13">G65/$A65</f>
+        <f t="shared" si="8"/>
+        <v>0.84126984126984128</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="8"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="H66" s="3">
-        <f t="shared" ref="H66" si="14">H65/$A65</f>
-        <v>0.26984126984126983</v>
-      </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66" si="15">I65/$A65</f>
-        <v>0.26984126984126983</v>
+        <f t="shared" si="8"/>
+        <v>0.38095238095238093</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66" si="16">J65/$A65</f>
-        <v>0.25396825396825395</v>
+        <f t="shared" si="8"/>
+        <v>0.38095238095238093</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" ref="K66" si="17">K65/$A65</f>
+        <f t="shared" si="8"/>
+        <v>0.36507936507936506</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" ref="L66" si="9">L65/$A65</f>
         <v>0</v>
       </c>
-      <c r="L66" s="3">
-        <f t="shared" ref="L66" si="18">L65/$A65</f>
+      <c r="M66" s="3">
+        <f t="shared" ref="M66" si="10">M65/$A65</f>
         <v>0</v>
       </c>
-      <c r="M66" s="3">
-        <f t="shared" ref="M66" si="19">M65/$A65</f>
+      <c r="N66" s="3">
+        <f t="shared" ref="N66" si="11">N65/$A65</f>
         <v>0</v>
       </c>
-      <c r="N66" s="3">
-        <f t="shared" ref="N66" si="20">N65/$A65</f>
+      <c r="O66" s="3">
+        <f t="shared" ref="O66" si="12">O65/$A65</f>
         <v>0</v>
       </c>
-      <c r="O66" s="3">
-        <f t="shared" ref="O66" si="21">O65/$A65</f>
+      <c r="P66" s="3">
+        <f t="shared" ref="P66" si="13">P65/$A65</f>
         <v>0</v>
       </c>
-      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Funcitonality_tests.xlsx
+++ b/Funcitonality_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eceme\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc3\Desktop\Hochschule\Projektarbeit_Stand_310125\Projektarbeit-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7404FC-5000-4884-935E-6497D4B164E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087C9B56-DAC8-4712-8FD3-218E3843FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
+    <workbookView xWindow="-180" yWindow="3300" windowWidth="18970" windowHeight="11170" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="76">
   <si>
     <t>Loreal</t>
   </si>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +307,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,27 +648,27 @@
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.81640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>63</v>
       </c>
@@ -690,17 +693,17 @@
       <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -776,7 +779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -802,7 +805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +831,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -866,7 +869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -892,7 +895,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -918,7 +921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -954,7 +957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -992,7 +995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1618,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1701,7 +1704,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1965,7 +1968,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1986,11 +1989,9 @@
         <v>65</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2001,8 +2002,14 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2030,8 +2037,17 @@
       <c r="I44" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2057,7 +2073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2083,8 +2099,17 @@
       <c r="I46" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2108,8 +2133,17 @@
       <c r="I47" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2131,7 +2165,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2156,7 +2190,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2178,8 +2212,17 @@
       <c r="I50" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2200,8 +2243,14 @@
       <c r="H51" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2224,8 +2273,17 @@
       <c r="H52" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2245,8 +2303,17 @@
       <c r="I53" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2269,8 +2336,20 @@
       <c r="H54" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2296,8 +2375,17 @@
       <c r="I55" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2316,8 +2404,17 @@
       <c r="H56" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2339,7 +2436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2365,8 +2462,17 @@
       <c r="I58" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2389,8 +2495,20 @@
       <c r="H59" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2416,8 +2534,17 @@
       <c r="I60" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2440,8 +2567,20 @@
       <c r="H61" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2467,8 +2606,17 @@
       <c r="I62" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2639,20 @@
       <c r="H63" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2515,8 +2675,20 @@
       <c r="H64" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f>COUNTA(A2:A64)</f>
         <v>63</v>
@@ -2551,19 +2723,19 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M65" s="1">
         <f t="shared" ref="M65" si="2">COUNTA(M2:M64)</f>
@@ -2587,7 +2759,7 @@
       </c>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3">
         <f>B65/A65</f>
@@ -2619,19 +2791,19 @@
       </c>
       <c r="I66" s="3">
         <f t="shared" si="7"/>
-        <v>0.55555555555555558</v>
+        <v>0.63492063492063489</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="7"/>
-        <v>0.38095238095238093</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K66" s="3">
         <f t="shared" si="7"/>
-        <v>0.38095238095238093</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L66" s="3">
         <f t="shared" si="7"/>
-        <v>0.36507936507936506</v>
+        <v>0.60317460317460314</v>
       </c>
       <c r="M66" s="3">
         <f t="shared" ref="M66" si="8">M65/$A65</f>
